--- a/Laba1/wwwroot/Reports/reportWorkers.xlsx
+++ b/Laba1/wwwroot/Reports/reportWorkers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Сотрудники</t>
   </si>
@@ -41,28 +41,25 @@
     <t>Должность</t>
   </si>
   <si>
-    <t>Аксенова Светлана Сергеевна</t>
-  </si>
-  <si>
-    <t>Отдел взысканий</t>
-  </si>
-  <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>Комаров Роман Дмитриевич</t>
+    <t>Володин Семен Александрович</t>
+  </si>
+  <si>
+    <t>Отдел выплат</t>
+  </si>
+  <si>
+    <t>Программист</t>
+  </si>
+  <si>
+    <t>Карпов Алексей Владимирович</t>
   </si>
   <si>
     <t>Отдел кадров</t>
   </si>
   <si>
-    <t>Программист</t>
+    <t>Юрист</t>
   </si>
   <si>
     <t>Смирнова Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>Отдел выплат</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -422,7 +419,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -436,35 +433,63 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E6">
-    <sortCondition ref="B3:B6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E8">
+    <sortCondition ref="B3:B8"/>
   </sortState>
   <mergeCells>
     <mergeCell ref="A1:D1"/>

--- a/Laba1/wwwroot/Reports/reportWorkers.xlsx
+++ b/Laba1/wwwroot/Reports/reportWorkers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Сотрудники</t>
   </si>
@@ -44,22 +44,16 @@
     <t>Володин Семен Александрович</t>
   </si>
   <si>
-    <t>Отдел выплат</t>
+    <t>Отдел кадров</t>
   </si>
   <si>
     <t>Программист</t>
   </si>
   <si>
-    <t>Карпов Алексей Владимирович</t>
-  </si>
-  <si>
-    <t>Отдел кадров</t>
-  </si>
-  <si>
-    <t>Юрист</t>
-  </si>
-  <si>
-    <t>Смирнова Екатерина Сергеевна</t>
+    <t>Комаров Роман Дмитриевич</t>
+  </si>
+  <si>
+    <t>Отдел взысканий</t>
   </si>
 </sst>
 </file>
@@ -382,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -419,7 +413,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -433,63 +427,21 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E8">
-    <sortCondition ref="B3:B8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E5">
+    <sortCondition ref="B3:B5"/>
   </sortState>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
